--- a/criteria2_clean_weighted.xlsx
+++ b/criteria2_clean_weighted.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="criteria2_clean_weighted" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>make</t>
   </si>
@@ -69,6 +69,48 @@
   </si>
   <si>
     <t>RAV4</t>
+  </si>
+  <si>
+    <t>Weights for Criteria</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Fuel Economy</t>
+  </si>
+  <si>
+    <t>Resale value</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>insurance_score_index</t>
+  </si>
+  <si>
+    <t>Fuel score index</t>
+  </si>
+  <si>
+    <t>Resale value index</t>
+  </si>
+  <si>
+    <t>Insurance score</t>
+  </si>
+  <si>
+    <t>Fuel Score</t>
+  </si>
+  <si>
+    <t>ResaleValue Score</t>
+  </si>
+  <si>
+    <t>Criteria 2 Score</t>
+  </si>
+  <si>
+    <t>Weight Factor</t>
   </si>
 </sst>
 </file>
@@ -118,6 +160,1935 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>criteria2_clean_weighted!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insurance score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>criteria2_clean_weighted!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Honda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ford</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hyundai</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Toyota</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>criteria2_clean_weighted!$J$2:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.270324504070634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.252354956112182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.246188387635756</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>criteria2_clean_weighted!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fuel Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>criteria2_clean_weighted!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Honda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ford</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hyundai</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Toyota</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>criteria2_clean_weighted!$K$2:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.380952380952381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.380952380952381</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.412698412698413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>criteria2_clean_weighted!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ResaleValue Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>criteria2_clean_weighted!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Honda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ford</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hyundai</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Toyota</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>criteria2_clean_weighted!$L$2:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.258152173913043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.176043344068706</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.274506843800322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-1450648400"/>
+        <c:axId val="-1451139280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1450648400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1451139280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1451139280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1450648400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>criteria2_clean_weighted!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Criteria 2 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>criteria2_clean_weighted!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Honda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ford</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hyundai</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Toyota</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>criteria2_clean_weighted!$M$2:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.972921122428122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.834773502798865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91108511484234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.933393644134491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1587641120"/>
+        <c:axId val="-1450837600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1587641120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1450837600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1450837600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1587641120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:M5" totalsRowShown="0">
+  <autoFilter ref="A1:M5"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="make"/>
+    <tableColumn id="2" name="model"/>
+    <tableColumn id="3" name="year"/>
+    <tableColumn id="4" name="insurance"/>
+    <tableColumn id="5" name="insurance_score_index">
+      <calculatedColumnFormula>MIN(Table2[insurance])/Table2[[#This Row],[insurance]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="fuel"/>
+    <tableColumn id="7" name="Fuel score index">
+      <calculatedColumnFormula>Table2[[#This Row],[fuel]]/MAX(Table2[fuel])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="resale_value"/>
+    <tableColumn id="9" name="Resale value index">
+      <calculatedColumnFormula>Table2[[#This Row],[resale_value]]/MAX(Table2[resale_value])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Insurance score">
+      <calculatedColumnFormula>Table2[[#This Row],[insurance_score_index]]*C12</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="Fuel Score">
+      <calculatedColumnFormula>Table2[[#This Row],[Fuel score index]]*C13</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="ResaleValue Score"/>
+    <tableColumn id="13" name="Criteria 2 Score">
+      <calculatedColumnFormula>SUM(Table2[[#This Row],[Insurance score]:[ResaleValue Score]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A11:C14" totalsRowShown="0">
+  <autoFilter ref="A11:C14"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Criteria"/>
+    <tableColumn id="2" name="Weight"/>
+    <tableColumn id="3" name="Weight Factor">
+      <calculatedColumnFormula>Table3[[#This Row],[Weight]]/SUM(Table3[Weight])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,13 +2354,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,13 +2387,34 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -420,16 +2425,44 @@
         <v>2017</v>
       </c>
       <c r="D2">
-        <v>6100</v>
+        <v>4845</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <f>MIN(Table2[insurance])/Table2[[#This Row],[insurance]]</f>
+        <v>0.97316821465428271</v>
       </c>
       <c r="F2">
-        <v>7254</v>
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <f>Table2[[#This Row],[fuel]]/MAX(Table2[fuel])</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>9234</v>
+      </c>
+      <c r="I2">
+        <f>Table2[[#This Row],[resale_value]]/MAX(Table2[resale_value])</f>
+        <v>0.92934782608695654</v>
+      </c>
+      <c r="J2">
+        <f>Table2[[#This Row],[insurance_score_index]]*C12</f>
+        <v>0.27032450407063408</v>
+      </c>
+      <c r="K2">
+        <f>Table2[[#This Row],[Fuel score index]]*C13</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="L2">
+        <f>Table2[[#This Row],[Resale value index]]*C14</f>
+        <v>0.25815217391304351</v>
+      </c>
+      <c r="M2">
+        <f>SUM(Table2[[#This Row],[Insurance score]:[ResaleValue Score]])</f>
+        <v>0.97292112242812201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -443,13 +2476,41 @@
         <v>4715</v>
       </c>
       <c r="E3">
+        <f>MIN(Table2[insurance])/Table2[[#This Row],[insurance]]</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>24</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <f>Table2[[#This Row],[fuel]]/MAX(Table2[fuel])</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H3">
         <v>6297</v>
       </c>
+      <c r="I3">
+        <f>Table2[[#This Row],[resale_value]]/MAX(Table2[resale_value])</f>
+        <v>0.63375603864734298</v>
+      </c>
+      <c r="J3">
+        <f>Table2[[#This Row],[insurance_score_index]]*C12</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="K3">
+        <f>Table2[[#This Row],[Fuel score index]]*C13</f>
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="L3">
+        <f>Table2[[#This Row],[Resale value index]]*C14</f>
+        <v>0.17604334406870639</v>
+      </c>
+      <c r="M3">
+        <f>SUM(Table2[[#This Row],[Insurance score]:[ResaleValue Score]])</f>
+        <v>0.83477350279886509</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -463,13 +2524,41 @@
         <v>5190</v>
       </c>
       <c r="E4">
+        <f>MIN(Table2[insurance])/Table2[[#This Row],[insurance]]</f>
+        <v>0.90847784200385362</v>
+      </c>
+      <c r="F4">
         <v>24</v>
       </c>
-      <c r="F4">
+      <c r="G4">
+        <f>Table2[[#This Row],[fuel]]/MAX(Table2[fuel])</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H4">
         <v>9936</v>
       </c>
+      <c r="I4">
+        <f>Table2[[#This Row],[resale_value]]/MAX(Table2[resale_value])</f>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f>Table2[[#This Row],[insurance_score_index]]*C12</f>
+        <v>0.25235495611218156</v>
+      </c>
+      <c r="K4">
+        <f>Table2[[#This Row],[Fuel score index]]*C13</f>
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="L4">
+        <f>Table2[[#This Row],[Resale value index]]*C14</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="M4">
+        <f>SUM(Table2[[#This Row],[Insurance score]:[ResaleValue Score]])</f>
+        <v>0.91108511484234034</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -483,13 +2572,98 @@
         <v>5320</v>
       </c>
       <c r="E5">
+        <f>MIN(Table2[insurance])/Table2[[#This Row],[insurance]]</f>
+        <v>0.88627819548872178</v>
+      </c>
+      <c r="F5">
         <v>26</v>
       </c>
-      <c r="F5">
+      <c r="G5">
+        <f>Table2[[#This Row],[fuel]]/MAX(Table2[fuel])</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="H5">
         <v>9819</v>
+      </c>
+      <c r="I5">
+        <f>Table2[[#This Row],[resale_value]]/MAX(Table2[resale_value])</f>
+        <v>0.98822463768115942</v>
+      </c>
+      <c r="J5">
+        <f>Table2[[#This Row],[insurance_score_index]]*C12</f>
+        <v>0.24618838763575607</v>
+      </c>
+      <c r="K5">
+        <f>Table2[[#This Row],[Fuel score index]]*C13</f>
+        <v>0.41269841269841268</v>
+      </c>
+      <c r="L5">
+        <f>Table2[[#This Row],[Resale value index]]*C14</f>
+        <v>0.27450684380032209</v>
+      </c>
+      <c r="M5">
+        <f>SUM(Table2[[#This Row],[Insurance score]:[ResaleValue Score]])</f>
+        <v>0.93339364413449089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <f>Table3[[#This Row],[Weight]]/SUM(Table3[Weight])</f>
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <f>Table3[[#This Row],[Weight]]/SUM(Table3[Weight])</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <f>Table3[[#This Row],[Weight]]/SUM(Table3[Weight])</f>
+        <v>0.27777777777777779</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>